--- a/PCAcombined/PCAcombined_predicted_factors_matrix_5.xlsx
+++ b/PCAcombined/PCAcombined_predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>0.1583801849461445</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.1089513642657697</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05927781029511844</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01186971022125462</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.03216124435113563</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.07249904136258546</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1092551876992242</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.1427475310581264</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.1733714327265793</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.201528330507433</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.227589274518137</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2518791775125919</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2746728338464787</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2961971983095306</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.316636617229213</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.3361390952099622</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.3548225449288379</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.3727804922661098</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.3900870182509531</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.4068008935099729</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.4229689522805786</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.4386287949365493</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.4538109213846295</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.4685403956397307</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.4828381322397794</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.4967218825269604</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.5102069857715712</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.5233069379762173</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.5360338205607201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.5483986221587446</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.5604114793963338</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.5720818566023709</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.583418679713078</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.5944304359665125</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.6048957738826956</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.6150143430135678</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.6246740040996965</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.6340006978798439</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.6430141560618017</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.6517302532068771</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.6601621167854732</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.6683208817981019</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.6762162230855517</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.2220488415385057</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.1830210201926123</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1508334029717944</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1251380055917606</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1051898842490242</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0901136000852199</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.07904439344523438</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.07119725332024919</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.06589461055687419</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06257104984876626</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.06076609664909877</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.06011162125089808</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.06031760556117641</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.06115829855089043</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.06245974879413452</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.06408909527039422</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.06594565875243387</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0679537014980586</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.07005664614353843</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.07221252378593677</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.07439043033180709</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.07656779364008526</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.07872828267764574</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.08086021878757166</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.08295537567994503</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0850080778032614</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.08701452608821821</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.08897229586474023</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.09087996443483817</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.09273683580593717</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.09454273791476635</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.09629787372180276</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.09800271219479227</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.09965790873087237</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.101095956061106</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1025172853671067</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1038178679449923</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.1051064079404067</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.1063741797906919</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1076153352771886</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1088260327068861</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1100038420874101</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.1111473271591789</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>-0.2058142539067494</v>
       </c>
+      <c r="F4" t="n">
+        <v>-0.1353301292487655</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.08840065959814966</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.05718093583039934</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.03643064436889459</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.02266020283794641</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.01354516635623264</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.007535308604871652</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.003595517625453617</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.001034086198883509</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0006113307552727857</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.001649665564258324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.002287146663880775</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.00266122528336887</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.002863308081796458</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.002954002995208212</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.002973347242799497</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.00294766721726806</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.002894175573870587</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.002824047619751076</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.002744475977811637</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.00266003932008317</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.002573611221447314</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.002486961271339946</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.002401150757766821</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.002316791642653425</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.00223421489976097</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.002153579029944887</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.002074939303848944</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.001998291388007428</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.001923598390505404</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.001850807275057108</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.001779858536471499</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.001710691666620107</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.001633050915504112</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.001558667129925871</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.001482446666821289</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.001410385884067747</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.001342399743654702</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.001278061430042937</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.001216906785740585</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.001158517187066836</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.001102539420400169</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.1047338214765429</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.0670656860917196</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04194981942951453</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.02531266167743834</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01437123010928557</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007221274667828106</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002567292468309956</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.0004642967585339084</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.002456462799904661</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.00379376403837873</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.004726618576024294</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.005415697121538269</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.005962289674991511</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.006428874173604766</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.006852909048368916</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.007255985005946783</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.007649828623603389</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.008040190651691443</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.008429327083314953</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.008817553967667315</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.009204199734232109</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.009588170939474396</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.009968273991613548</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.0103433859448396</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.01071253439391585</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.01107492460940864</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.01142993770717351</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.01177711435189509</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.01211613255524206</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.01244678439575212</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.01276895418909302</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.01308259926057432</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01338773367852658</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.01368441487624826</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01391513483540749</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.01415031763490757</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.01435365532795535</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.01456309822867892</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.01477483938904617</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.01498621671932806</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.01519538271669214</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.01540106744177824</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.01560241071322654</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -533,6 +1163,132 @@
       </c>
       <c r="E6" t="n">
         <v>-0.06051827324600392</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.04150150244903587</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.02841797065800982</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.01931029474544719</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.01294015941418495</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.008477169516084966</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.005350583998843007</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.003163575075339839</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.001638483244781751</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.0005802544866635555</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0001485084294859786</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0006447718891403071</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0009770556955523118</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.001193815882940175</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.00132933222435417</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.001407855968660909</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.001446538662623534</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.001457503727671624</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.001449313377625433</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.001428008097272954</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.001397843478042755</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.001361812539763307</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.001322015905971223</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.001279924036521849</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.001236562879367899</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.00119264520549187</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.001148663436127933</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.001104955187416841</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.001061749500461882</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.001019199409918268</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0009774048592898902</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0009364288025216691</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0008963085017897626</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.000857063442659493</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0008226449659561469</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0007898627933066301</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0007595624278304411</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0007296882955552053</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0006996118095254592</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0006695076986319793</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0006396110829429188</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0006100976564693895</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0005810830561082028</v>
       </c>
     </row>
   </sheetData>
